--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理刑事一审案件收结案情况/人民法院刑事结案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理刑事一审案件收结案情况/人民法院刑事结案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,841 +493,481 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187416</v>
+        <v>184729</v>
       </c>
       <c r="C2" t="n">
-        <v>231397</v>
+        <v>294233</v>
       </c>
       <c r="D2" t="n">
-        <v>324</v>
+        <v>670</v>
       </c>
       <c r="E2" t="n">
-        <v>58318</v>
+        <v>12950</v>
       </c>
       <c r="F2" t="n">
-        <v>560111</v>
+        <v>779641</v>
       </c>
       <c r="G2" t="n">
-        <v>39988</v>
+        <v>89028</v>
       </c>
       <c r="H2" t="n">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="I2" t="n">
-        <v>61236</v>
+        <v>152873</v>
       </c>
       <c r="J2" t="n">
-        <v>1445</v>
+        <v>4310</v>
       </c>
       <c r="K2" t="n">
-        <v>16940</v>
+        <v>30150</v>
       </c>
       <c r="L2" t="n">
-        <v>21249</v>
+        <v>23441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192285</v>
+        <v>187256</v>
       </c>
       <c r="C3" t="n">
-        <v>263464</v>
+        <v>300423</v>
       </c>
       <c r="D3" t="n">
-        <v>305</v>
+        <v>1314</v>
       </c>
       <c r="E3" t="n">
-        <v>52906</v>
+        <v>10995</v>
       </c>
       <c r="F3" t="n">
-        <v>623792</v>
+        <v>839973</v>
       </c>
       <c r="G3" t="n">
-        <v>51079</v>
+        <v>118403</v>
       </c>
       <c r="H3" t="n">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="I3" t="n">
-        <v>78081</v>
+        <v>170903</v>
       </c>
       <c r="J3" t="n">
-        <v>1789</v>
+        <v>4526</v>
       </c>
       <c r="K3" t="n">
-        <v>14953</v>
+        <v>34103</v>
       </c>
       <c r="L3" t="n">
-        <v>21681</v>
+        <v>22868</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185275</v>
+        <v>194269</v>
       </c>
       <c r="C4" t="n">
-        <v>277206</v>
+        <v>339849</v>
       </c>
       <c r="D4" t="n">
-        <v>252</v>
+        <v>1385</v>
       </c>
       <c r="E4" t="n">
-        <v>42726</v>
+        <v>10071</v>
       </c>
       <c r="F4" t="n">
-        <v>628549</v>
+        <v>986392</v>
       </c>
       <c r="G4" t="n">
-        <v>53057</v>
+        <v>174510</v>
       </c>
       <c r="H4" t="n">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="I4" t="n">
-        <v>76925</v>
+        <v>182128</v>
       </c>
       <c r="J4" t="n">
-        <v>1558</v>
+        <v>5439</v>
       </c>
       <c r="K4" t="n">
-        <v>15129</v>
+        <v>62709</v>
       </c>
       <c r="L4" t="n">
-        <v>19019</v>
+        <v>25886</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>184018</v>
+        <v>182199</v>
       </c>
       <c r="C5" t="n">
-        <v>278969</v>
+        <v>303324</v>
       </c>
       <c r="D5" t="n">
-        <v>328</v>
+        <v>893</v>
       </c>
       <c r="E5" t="n">
-        <v>40250</v>
+        <v>8224</v>
       </c>
       <c r="F5" t="n">
-        <v>634953</v>
+        <v>953976</v>
       </c>
       <c r="G5" t="n">
-        <v>57505</v>
+        <v>190435</v>
       </c>
       <c r="H5" t="n">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="I5" t="n">
-        <v>76217</v>
+        <v>197353</v>
       </c>
       <c r="J5" t="n">
-        <v>2053</v>
+        <v>5185</v>
       </c>
       <c r="K5" t="n">
-        <v>14775</v>
+        <v>50410</v>
       </c>
       <c r="L5" t="n">
-        <v>20933</v>
+        <v>23941</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174137</v>
+        <v>185295</v>
       </c>
       <c r="C6" t="n">
-        <v>284471</v>
+        <v>307688</v>
       </c>
       <c r="D6" t="n">
-        <v>336</v>
+        <v>1074</v>
       </c>
       <c r="E6" t="n">
-        <v>34236</v>
+        <v>7102</v>
       </c>
       <c r="F6" t="n">
-        <v>644248</v>
+        <v>1023017</v>
       </c>
       <c r="G6" t="n">
-        <v>68342</v>
+        <v>217826</v>
       </c>
       <c r="H6" t="n">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="I6" t="n">
-        <v>78670</v>
+        <v>223954</v>
       </c>
       <c r="J6" t="n">
-        <v>2596</v>
+        <v>5496</v>
       </c>
       <c r="K6" t="n">
-        <v>13957</v>
+        <v>55858</v>
       </c>
       <c r="L6" t="n">
-        <v>21588</v>
+        <v>25583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178046</v>
+        <v>182455</v>
       </c>
       <c r="C7" t="n">
-        <v>303869</v>
+        <v>312749</v>
       </c>
       <c r="D7" t="n">
-        <v>299</v>
+        <v>416</v>
       </c>
       <c r="E7" t="n">
-        <v>29996</v>
+        <v>9290</v>
       </c>
       <c r="F7" t="n">
-        <v>683997</v>
+        <v>1099205</v>
       </c>
       <c r="G7" t="n">
-        <v>74987</v>
+        <v>245407</v>
       </c>
       <c r="H7" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="I7" t="n">
-        <v>87221</v>
+        <v>274994</v>
       </c>
       <c r="J7" t="n">
-        <v>2632</v>
+        <v>5187</v>
       </c>
       <c r="K7" t="n">
-        <v>15082</v>
+        <v>58274</v>
       </c>
       <c r="L7" t="n">
-        <v>21645</v>
+        <v>19493</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176253</v>
+        <v>169191</v>
       </c>
       <c r="C8" t="n">
-        <v>310219</v>
+        <v>321810</v>
       </c>
       <c r="D8" t="n">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="E8" t="n">
-        <v>24428</v>
+        <v>17171</v>
       </c>
       <c r="F8" t="n">
-        <v>701379</v>
+        <v>1115873</v>
       </c>
       <c r="G8" t="n">
-        <v>79072</v>
+        <v>272974</v>
       </c>
       <c r="H8" t="n">
-        <v>188</v>
+        <v>281</v>
       </c>
       <c r="I8" t="n">
-        <v>94925</v>
+        <v>255607</v>
       </c>
       <c r="J8" t="n">
-        <v>2911</v>
+        <v>5342</v>
       </c>
       <c r="K8" t="n">
-        <v>16679</v>
+        <v>58320</v>
       </c>
       <c r="L8" t="n">
-        <v>20822</v>
+        <v>32063</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>171816</v>
+        <v>174573</v>
       </c>
       <c r="C9" t="n">
-        <v>315762</v>
+        <v>331522</v>
       </c>
       <c r="D9" t="n">
-        <v>306</v>
+        <v>448</v>
       </c>
       <c r="E9" t="n">
-        <v>19872</v>
+        <v>15102</v>
       </c>
       <c r="F9" t="n">
-        <v>720666</v>
+        <v>1296650</v>
       </c>
       <c r="G9" t="n">
-        <v>84519</v>
+        <v>344409</v>
       </c>
       <c r="H9" t="n">
-        <v>227</v>
+        <v>348</v>
       </c>
       <c r="I9" t="n">
-        <v>105701</v>
+        <v>354583</v>
       </c>
       <c r="J9" t="n">
-        <v>3022</v>
+        <v>5262</v>
       </c>
       <c r="K9" t="n">
-        <v>19100</v>
+        <v>59748</v>
       </c>
       <c r="L9" t="n">
-        <v>20213</v>
+        <v>25757</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177105</v>
+        <v>167055</v>
       </c>
       <c r="C10" t="n">
-        <v>330811</v>
+        <v>308620</v>
       </c>
       <c r="D10" t="n">
-        <v>466</v>
+        <v>218</v>
       </c>
       <c r="E10" t="n">
-        <v>17103</v>
+        <v>13287</v>
       </c>
       <c r="F10" t="n">
-        <v>768130</v>
+        <v>1198383</v>
       </c>
       <c r="G10" t="n">
-        <v>90590</v>
+        <v>341709</v>
       </c>
       <c r="H10" t="n">
-        <v>182</v>
+        <v>769</v>
       </c>
       <c r="I10" t="n">
-        <v>121405</v>
+        <v>278773</v>
       </c>
       <c r="J10" t="n">
-        <v>3786</v>
+        <v>3369</v>
       </c>
       <c r="K10" t="n">
-        <v>21674</v>
+        <v>79823</v>
       </c>
       <c r="L10" t="n">
-        <v>22111</v>
+        <v>18047</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180293</v>
+        <v>167820</v>
       </c>
       <c r="C11" t="n">
-        <v>314173</v>
+        <v>314302</v>
       </c>
       <c r="D11" t="n">
-        <v>698</v>
+        <v>283</v>
       </c>
       <c r="E11" t="n">
-        <v>15004</v>
+        <v>10617</v>
       </c>
       <c r="F11" t="n">
-        <v>766746</v>
+        <v>1297191</v>
       </c>
       <c r="G11" t="n">
-        <v>86814</v>
+        <v>419710</v>
       </c>
       <c r="H11" t="n">
-        <v>197</v>
+        <v>457</v>
       </c>
       <c r="I11" t="n">
-        <v>133639</v>
+        <v>310502</v>
       </c>
       <c r="J11" t="n">
-        <v>3970</v>
+        <v>2240</v>
       </c>
       <c r="K11" t="n">
-        <v>25020</v>
+        <v>67535</v>
       </c>
       <c r="L11" t="n">
-        <v>21942</v>
+        <v>14342</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>184729</v>
+        <v>137324</v>
       </c>
       <c r="C12" t="n">
-        <v>294233</v>
+        <v>276541</v>
       </c>
       <c r="D12" t="n">
-        <v>670</v>
+        <v>382</v>
       </c>
       <c r="E12" t="n">
-        <v>12950</v>
+        <v>7145</v>
       </c>
       <c r="F12" t="n">
-        <v>779641</v>
+        <v>1115890</v>
       </c>
       <c r="G12" t="n">
-        <v>89028</v>
+        <v>365364</v>
       </c>
       <c r="H12" t="n">
-        <v>207</v>
+        <v>421</v>
       </c>
       <c r="I12" t="n">
-        <v>152873</v>
+        <v>254925</v>
       </c>
       <c r="J12" t="n">
-        <v>4310</v>
+        <v>1958</v>
       </c>
       <c r="K12" t="n">
-        <v>30150</v>
+        <v>67369</v>
       </c>
       <c r="L12" t="n">
-        <v>23441</v>
+        <v>11606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>187256</v>
+        <v>145273</v>
       </c>
       <c r="C13" t="n">
-        <v>300423</v>
+        <v>269145</v>
       </c>
       <c r="D13" t="n">
-        <v>1314</v>
+        <v>255</v>
       </c>
       <c r="E13" t="n">
-        <v>10995</v>
+        <v>9023</v>
       </c>
       <c r="F13" t="n">
-        <v>839973</v>
+        <v>1255671</v>
       </c>
       <c r="G13" t="n">
-        <v>118403</v>
+        <v>433269</v>
       </c>
       <c r="H13" t="n">
-        <v>177</v>
+        <v>434</v>
       </c>
       <c r="I13" t="n">
-        <v>170903</v>
+        <v>319603</v>
       </c>
       <c r="J13" t="n">
-        <v>4526</v>
+        <v>1846</v>
       </c>
       <c r="K13" t="n">
-        <v>34103</v>
+        <v>73728</v>
       </c>
       <c r="L13" t="n">
-        <v>22868</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>194269</v>
-      </c>
-      <c r="C14" t="n">
-        <v>339849</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1385</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10071</v>
-      </c>
-      <c r="F14" t="n">
-        <v>986392</v>
-      </c>
-      <c r="G14" t="n">
-        <v>174510</v>
-      </c>
-      <c r="H14" t="n">
-        <v>217</v>
-      </c>
-      <c r="I14" t="n">
-        <v>182128</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5439</v>
-      </c>
-      <c r="K14" t="n">
-        <v>62709</v>
-      </c>
-      <c r="L14" t="n">
-        <v>25886</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>182199</v>
-      </c>
-      <c r="C15" t="n">
-        <v>303324</v>
-      </c>
-      <c r="D15" t="n">
-        <v>893</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8224</v>
-      </c>
-      <c r="F15" t="n">
-        <v>953976</v>
-      </c>
-      <c r="G15" t="n">
-        <v>190435</v>
-      </c>
-      <c r="H15" t="n">
-        <v>236</v>
-      </c>
-      <c r="I15" t="n">
-        <v>197353</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5185</v>
-      </c>
-      <c r="K15" t="n">
-        <v>50410</v>
-      </c>
-      <c r="L15" t="n">
-        <v>23941</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>185295</v>
-      </c>
-      <c r="C16" t="n">
-        <v>307688</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1074</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7102</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1023017</v>
-      </c>
-      <c r="G16" t="n">
-        <v>217826</v>
-      </c>
-      <c r="H16" t="n">
-        <v>243</v>
-      </c>
-      <c r="I16" t="n">
-        <v>223954</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5496</v>
-      </c>
-      <c r="K16" t="n">
-        <v>55858</v>
-      </c>
-      <c r="L16" t="n">
-        <v>25583</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>182455</v>
-      </c>
-      <c r="C17" t="n">
-        <v>312749</v>
-      </c>
-      <c r="D17" t="n">
-        <v>416</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9290</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1099205</v>
-      </c>
-      <c r="G17" t="n">
-        <v>245407</v>
-      </c>
-      <c r="H17" t="n">
-        <v>230</v>
-      </c>
-      <c r="I17" t="n">
-        <v>274994</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5187</v>
-      </c>
-      <c r="K17" t="n">
-        <v>58274</v>
-      </c>
-      <c r="L17" t="n">
-        <v>19493</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>169191</v>
-      </c>
-      <c r="C18" t="n">
-        <v>321810</v>
-      </c>
-      <c r="D18" t="n">
-        <v>285</v>
-      </c>
-      <c r="E18" t="n">
-        <v>17171</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1115873</v>
-      </c>
-      <c r="G18" t="n">
-        <v>272974</v>
-      </c>
-      <c r="H18" t="n">
-        <v>281</v>
-      </c>
-      <c r="I18" t="n">
-        <v>255607</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5342</v>
-      </c>
-      <c r="K18" t="n">
-        <v>58320</v>
-      </c>
-      <c r="L18" t="n">
-        <v>32063</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>174573</v>
-      </c>
-      <c r="C19" t="n">
-        <v>331522</v>
-      </c>
-      <c r="D19" t="n">
-        <v>448</v>
-      </c>
-      <c r="E19" t="n">
-        <v>15102</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1296650</v>
-      </c>
-      <c r="G19" t="n">
-        <v>344409</v>
-      </c>
-      <c r="H19" t="n">
-        <v>348</v>
-      </c>
-      <c r="I19" t="n">
-        <v>354583</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5262</v>
-      </c>
-      <c r="K19" t="n">
-        <v>59748</v>
-      </c>
-      <c r="L19" t="n">
-        <v>25757</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>167055</v>
-      </c>
-      <c r="C20" t="n">
-        <v>308620</v>
-      </c>
-      <c r="D20" t="n">
-        <v>218</v>
-      </c>
-      <c r="E20" t="n">
-        <v>13287</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1198383</v>
-      </c>
-      <c r="G20" t="n">
-        <v>341709</v>
-      </c>
-      <c r="H20" t="n">
-        <v>769</v>
-      </c>
-      <c r="I20" t="n">
-        <v>278773</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3369</v>
-      </c>
-      <c r="K20" t="n">
-        <v>79823</v>
-      </c>
-      <c r="L20" t="n">
-        <v>18047</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>167820</v>
-      </c>
-      <c r="C21" t="n">
-        <v>314302</v>
-      </c>
-      <c r="D21" t="n">
-        <v>283</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10617</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1297191</v>
-      </c>
-      <c r="G21" t="n">
-        <v>419710</v>
-      </c>
-      <c r="H21" t="n">
-        <v>457</v>
-      </c>
-      <c r="I21" t="n">
-        <v>310502</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2240</v>
-      </c>
-      <c r="K21" t="n">
-        <v>67535</v>
-      </c>
-      <c r="L21" t="n">
-        <v>14342</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>137324</v>
-      </c>
-      <c r="C22" t="n">
-        <v>276541</v>
-      </c>
-      <c r="D22" t="n">
-        <v>382</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7145</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1115890</v>
-      </c>
-      <c r="G22" t="n">
-        <v>365364</v>
-      </c>
-      <c r="H22" t="n">
-        <v>421</v>
-      </c>
-      <c r="I22" t="n">
-        <v>254925</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1958</v>
-      </c>
-      <c r="K22" t="n">
-        <v>67369</v>
-      </c>
-      <c r="L22" t="n">
-        <v>11606</v>
+        <v>12118</v>
       </c>
     </row>
   </sheetData>
